--- a/src/test/testResources/simpleTests/simple.xlsx
+++ b/src/test/testResources/simpleTests/simple.xlsx
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
